--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fn1-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fn1-Itga9.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H2">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I2">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J2">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.237200333333333</v>
+        <v>3.135398666666667</v>
       </c>
       <c r="N2">
-        <v>6.711601</v>
+        <v>9.406196000000001</v>
       </c>
       <c r="O2">
-        <v>0.1121050933480713</v>
+        <v>0.1723049126704688</v>
       </c>
       <c r="P2">
-        <v>0.1121050933480713</v>
+        <v>0.1723049126704688</v>
       </c>
       <c r="Q2">
-        <v>44.64508363379423</v>
+        <v>91.62715362380534</v>
       </c>
       <c r="R2">
-        <v>401.805752704148</v>
+        <v>824.6443826142481</v>
       </c>
       <c r="S2">
-        <v>0.001315815816722192</v>
+        <v>0.002912663681824063</v>
       </c>
       <c r="T2">
-        <v>0.001315815816722192</v>
+        <v>0.002912663681824063</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H3">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I3">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J3">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>9.461046</v>
       </c>
       <c r="O3">
-        <v>0.158029573718759</v>
+        <v>0.1733096678828815</v>
       </c>
       <c r="P3">
-        <v>0.158029573718759</v>
+        <v>0.1733096678828815</v>
       </c>
       <c r="Q3">
-        <v>62.93419259177867</v>
+        <v>92.16145562817199</v>
       </c>
       <c r="R3">
-        <v>566.4077333260079</v>
+        <v>829.4531006535479</v>
       </c>
       <c r="S3">
-        <v>0.001854847147429686</v>
+        <v>0.002929648188945544</v>
       </c>
       <c r="T3">
-        <v>0.001854847147429686</v>
+        <v>0.002929648188945544</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H4">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I4">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J4">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.123499666666667</v>
+        <v>0.4900660000000001</v>
       </c>
       <c r="N4">
-        <v>3.370499</v>
+        <v>1.470198</v>
       </c>
       <c r="O4">
-        <v>0.05629805839539346</v>
+        <v>0.02693143306797965</v>
       </c>
       <c r="P4">
-        <v>0.05629805839539345</v>
+        <v>0.02693143306797965</v>
       </c>
       <c r="Q4">
-        <v>22.42031517407245</v>
+        <v>14.321417287436</v>
       </c>
       <c r="R4">
-        <v>201.782836566652</v>
+        <v>128.892755586924</v>
       </c>
       <c r="S4">
-        <v>0.0006607895633912584</v>
+        <v>0.0004552522953689646</v>
       </c>
       <c r="T4">
-        <v>0.0006607895633912583</v>
+        <v>0.0004552522953689646</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H5">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I5">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J5">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.44189533333333</v>
+        <v>11.417657</v>
       </c>
       <c r="N5">
-        <v>40.325686</v>
+        <v>34.252971</v>
       </c>
       <c r="O5">
-        <v>0.6735672745377762</v>
+        <v>0.62745398637867</v>
       </c>
       <c r="P5">
-        <v>0.6735672745377762</v>
+        <v>0.6274539863786701</v>
       </c>
       <c r="Q5">
-        <v>268.2435419000809</v>
+        <v>333.663282786022</v>
       </c>
       <c r="R5">
-        <v>2414.191877100728</v>
+        <v>3002.969545074198</v>
       </c>
       <c r="S5">
-        <v>0.00790588943814936</v>
+        <v>0.01060656025307923</v>
       </c>
       <c r="T5">
-        <v>0.00790588943814936</v>
+        <v>0.01060656025307923</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I6">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J6">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.237200333333333</v>
+        <v>3.135398666666667</v>
       </c>
       <c r="N6">
-        <v>6.711601</v>
+        <v>9.406196000000001</v>
       </c>
       <c r="O6">
-        <v>0.1121050933480713</v>
+        <v>0.1723049126704688</v>
       </c>
       <c r="P6">
-        <v>0.1121050933480713</v>
+        <v>0.1723049126704688</v>
       </c>
       <c r="Q6">
-        <v>3663.065073486448</v>
+        <v>5133.724135562876</v>
       </c>
       <c r="R6">
-        <v>32967.58566137803</v>
+        <v>46203.51722006589</v>
       </c>
       <c r="S6">
-        <v>0.1079608003629689</v>
+        <v>0.1631919278377843</v>
       </c>
       <c r="T6">
-        <v>0.1079608003629689</v>
+        <v>0.1631919278377843</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I7">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J7">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>9.461046</v>
       </c>
       <c r="O7">
-        <v>0.158029573718759</v>
+        <v>0.1733096678828815</v>
       </c>
       <c r="P7">
-        <v>0.158029573718759</v>
+        <v>0.1733096678828815</v>
       </c>
       <c r="Q7">
         <v>5163.660229690153</v>
@@ -883,10 +883,10 @@
         <v>46472.94206721138</v>
       </c>
       <c r="S7">
-        <v>0.152187547863895</v>
+        <v>0.1641435428415438</v>
       </c>
       <c r="T7">
-        <v>0.152187547863895</v>
+        <v>0.1641435428415438</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I8">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J8">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.123499666666667</v>
+        <v>0.4900660000000001</v>
       </c>
       <c r="N8">
-        <v>3.370499</v>
+        <v>1.470198</v>
       </c>
       <c r="O8">
-        <v>0.05629805839539346</v>
+        <v>0.02693143306797965</v>
       </c>
       <c r="P8">
-        <v>0.05629805839539345</v>
+        <v>0.02693143306797965</v>
       </c>
       <c r="Q8">
-        <v>1839.554700453886</v>
+        <v>802.4063028939934</v>
       </c>
       <c r="R8">
-        <v>16555.99230408497</v>
+        <v>7221.656726045941</v>
       </c>
       <c r="S8">
-        <v>0.05421683584327888</v>
+        <v>0.02550706427159873</v>
       </c>
       <c r="T8">
-        <v>0.05421683584327888</v>
+        <v>0.02550706427159872</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I9">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J9">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.44189533333333</v>
+        <v>11.417657</v>
       </c>
       <c r="N9">
-        <v>40.325686</v>
+        <v>34.252971</v>
       </c>
       <c r="O9">
-        <v>0.6735672745377762</v>
+        <v>0.62745398637867</v>
       </c>
       <c r="P9">
-        <v>0.6735672745377762</v>
+        <v>0.6274539863786701</v>
       </c>
       <c r="Q9">
-        <v>22008.99784581673</v>
+        <v>18694.62468541324</v>
       </c>
       <c r="R9">
-        <v>198080.9806123506</v>
+        <v>168251.6221687191</v>
       </c>
       <c r="S9">
-        <v>0.6486668882351274</v>
+        <v>0.5942687534537574</v>
       </c>
       <c r="T9">
-        <v>0.6486668882351275</v>
+        <v>0.5942687534537574</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H10">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I10">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J10">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.237200333333333</v>
+        <v>3.135398666666667</v>
       </c>
       <c r="N10">
-        <v>6.711601</v>
+        <v>9.406196000000001</v>
       </c>
       <c r="O10">
-        <v>0.1121050933480713</v>
+        <v>0.1723049126704688</v>
       </c>
       <c r="P10">
-        <v>0.1121050933480713</v>
+        <v>0.1723049126704688</v>
       </c>
       <c r="Q10">
-        <v>56.81621558670778</v>
+        <v>117.2392240944978</v>
       </c>
       <c r="R10">
-        <v>511.34594028037</v>
+        <v>1055.15301685048</v>
       </c>
       <c r="S10">
-        <v>0.001674533207923</v>
+        <v>0.003726825690856755</v>
       </c>
       <c r="T10">
-        <v>0.001674533207923</v>
+        <v>0.003726825690856755</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H11">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I11">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J11">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>9.461046</v>
       </c>
       <c r="O11">
-        <v>0.158029573718759</v>
+        <v>0.1733096678828815</v>
       </c>
       <c r="P11">
-        <v>0.158029573718759</v>
+        <v>0.1733096678828815</v>
       </c>
       <c r="Q11">
-        <v>80.09129702611334</v>
+        <v>117.9228768103867</v>
       </c>
       <c r="R11">
-        <v>720.8216732350201</v>
+        <v>1061.30589129348</v>
       </c>
       <c r="S11">
-        <v>0.002360515130247919</v>
+        <v>0.003748557790543333</v>
       </c>
       <c r="T11">
-        <v>0.002360515130247919</v>
+        <v>0.003748557790543332</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H12">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I12">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J12">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.123499666666667</v>
+        <v>0.4900660000000001</v>
       </c>
       <c r="N12">
-        <v>3.370499</v>
+        <v>1.470198</v>
       </c>
       <c r="O12">
-        <v>0.05629805839539346</v>
+        <v>0.02693143306797965</v>
       </c>
       <c r="P12">
-        <v>0.05629805839539345</v>
+        <v>0.02693143306797965</v>
       </c>
       <c r="Q12">
-        <v>28.53253609962556</v>
+        <v>18.32460994702667</v>
       </c>
       <c r="R12">
-        <v>256.79282489663</v>
+        <v>164.92148952324</v>
       </c>
       <c r="S12">
-        <v>0.0008409338550922893</v>
+        <v>0.000582506645305522</v>
       </c>
       <c r="T12">
-        <v>0.0008409338550922893</v>
+        <v>0.0005825066453055219</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H13">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I13">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J13">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.44189533333333</v>
+        <v>11.417657</v>
       </c>
       <c r="N13">
-        <v>40.325686</v>
+        <v>34.252971</v>
       </c>
       <c r="O13">
-        <v>0.6735672745377762</v>
+        <v>0.62745398637867</v>
       </c>
       <c r="P13">
-        <v>0.6735672745377762</v>
+        <v>0.6274539863786701</v>
       </c>
       <c r="Q13">
-        <v>341.3720317190911</v>
+        <v>426.9304767805534</v>
       </c>
       <c r="R13">
-        <v>3072.34828547182</v>
+        <v>3842.374291024981</v>
       </c>
       <c r="S13">
-        <v>0.01006119111360696</v>
+        <v>0.013571357891221</v>
       </c>
       <c r="T13">
-        <v>0.01006119111360696</v>
+        <v>0.013571357891221</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H14">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I14">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J14">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.237200333333333</v>
+        <v>3.135398666666667</v>
       </c>
       <c r="N14">
-        <v>6.711601</v>
+        <v>9.406196000000001</v>
       </c>
       <c r="O14">
-        <v>0.1121050933480713</v>
+        <v>0.1723049126704688</v>
       </c>
       <c r="P14">
-        <v>0.1121050933480713</v>
+        <v>0.1723049126704688</v>
       </c>
       <c r="Q14">
-        <v>39.15283884613979</v>
+        <v>77.81171232224402</v>
       </c>
       <c r="R14">
-        <v>352.375549615258</v>
+        <v>700.3054109001962</v>
       </c>
       <c r="S14">
-        <v>0.001153943960457253</v>
+        <v>0.002473495460003678</v>
       </c>
       <c r="T14">
-        <v>0.001153943960457253</v>
+        <v>0.002473495460003678</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H15">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I15">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J15">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>9.461046</v>
       </c>
       <c r="O15">
-        <v>0.158029573718759</v>
+        <v>0.1733096678828815</v>
       </c>
       <c r="P15">
-        <v>0.158029573718759</v>
+        <v>0.1733096678828815</v>
       </c>
       <c r="Q15">
-        <v>55.19201891678534</v>
+        <v>78.26545285889399</v>
       </c>
       <c r="R15">
-        <v>496.728170251068</v>
+        <v>704.389075730046</v>
       </c>
       <c r="S15">
-        <v>0.001626663577186464</v>
+        <v>0.002487919061848802</v>
       </c>
       <c r="T15">
-        <v>0.001626663577186465</v>
+        <v>0.002487919061848802</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H16">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I16">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J16">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.123499666666667</v>
+        <v>0.4900660000000001</v>
       </c>
       <c r="N16">
-        <v>3.370499</v>
+        <v>1.470198</v>
       </c>
       <c r="O16">
-        <v>0.05629805839539346</v>
+        <v>0.02693143306797965</v>
       </c>
       <c r="P16">
-        <v>0.05629805839539345</v>
+        <v>0.02693143306797965</v>
       </c>
       <c r="Q16">
-        <v>19.66216468739356</v>
+        <v>12.162049763022</v>
       </c>
       <c r="R16">
-        <v>176.959482186542</v>
+        <v>109.458447867198</v>
       </c>
       <c r="S16">
-        <v>0.0005794991336310384</v>
+        <v>0.0003866098557064394</v>
       </c>
       <c r="T16">
-        <v>0.0005794991336310384</v>
+        <v>0.0003866098557064393</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H17">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I17">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J17">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.44189533333333</v>
+        <v>11.417657</v>
       </c>
       <c r="N17">
-        <v>40.325686</v>
+        <v>34.252971</v>
       </c>
       <c r="O17">
-        <v>0.6735672745377762</v>
+        <v>0.62745398637867</v>
       </c>
       <c r="P17">
-        <v>0.6735672745377762</v>
+        <v>0.6274539863786701</v>
       </c>
       <c r="Q17">
-        <v>235.2441817262431</v>
+        <v>283.353900517719</v>
       </c>
       <c r="R17">
-        <v>2117.197635536188</v>
+        <v>2550.185104659472</v>
       </c>
       <c r="S17">
-        <v>0.006933305750892463</v>
+        <v>0.009007314780612442</v>
       </c>
       <c r="T17">
-        <v>0.006933305750892464</v>
+        <v>0.009007314780612442</v>
       </c>
     </row>
   </sheetData>
